--- a/biology/Zoologie/Araripichthys/Araripichthys.xlsx
+++ b/biology/Zoologie/Araripichthys/Araripichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araripichthys est un genre éteint de poissons à nageoires rayonnées de la famille des Araripichthyidae (ordre également éteint des Crossognathiformes). Ces espèces ont vécu de l’Aptien au Coniacien[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araripichthys est un genre éteint de poissons à nageoires rayonnées de la famille des Araripichthyidae (ordre également éteint des Crossognathiformes). Ces espèces ont vécu de l’Aptien au Coniacien,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Araripichthys a été créé en 1985 par le paléontologue Silva Santos (d)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Araripichthys a été créé en 1985 par le paléontologue Silva Santos (d).
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (24 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (24 juin 2022) :
 † Araripichthys axelrodi Maisey &amp; Moody, 2001
 † Araripichthys weberi Alvarado-Ortega &amp; Brito, 2011
-Auxquelles pourrait s'ajouter l'espèce suivante, non mentionnée par Paleobiology Database                   (24 juin 2022)[3] :
+Auxquelles pourrait s'ajouter l'espèce suivante, non mentionnée par Paleobiology Database                   (24 juin 2022) :
 † Araripichthys castilhoi Silva Santos, 1985</t>
         </is>
       </c>
